--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.6284378426208</v>
+        <v>28.73444633333333</v>
       </c>
       <c r="N2">
-        <v>27.6284378426208</v>
+        <v>86.203339</v>
       </c>
       <c r="O2">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="P2">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="Q2">
-        <v>1312.862654158567</v>
+        <v>1400.707509869196</v>
       </c>
       <c r="R2">
-        <v>1312.862654158567</v>
+        <v>12606.36758882276</v>
       </c>
       <c r="S2">
-        <v>0.07661474376165484</v>
+        <v>0.0782332389339282</v>
       </c>
       <c r="T2">
-        <v>0.07661474376165484</v>
+        <v>0.0782332389339282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3239233924809</v>
+        <v>16.38501466666667</v>
       </c>
       <c r="N3">
-        <v>16.3239233924809</v>
+        <v>49.155044</v>
       </c>
       <c r="O3">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="P3">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="Q3">
-        <v>775.6887853526456</v>
+        <v>798.7142966556173</v>
       </c>
       <c r="R3">
-        <v>775.6887853526456</v>
+        <v>7188.428669900555</v>
       </c>
       <c r="S3">
-        <v>0.04526688099500496</v>
+        <v>0.04461031726462189</v>
       </c>
       <c r="T3">
-        <v>0.04526688099500496</v>
+        <v>0.0446103172646219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.36648573305189</v>
+        <v>5.486482333333334</v>
       </c>
       <c r="N4">
-        <v>5.36648573305189</v>
+        <v>16.459447</v>
       </c>
       <c r="O4">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="P4">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="Q4">
-        <v>255.0074942033084</v>
+        <v>267.4475407639837</v>
       </c>
       <c r="R4">
-        <v>255.0074942033084</v>
+        <v>2407.027866875853</v>
       </c>
       <c r="S4">
-        <v>0.01488147580693421</v>
+        <v>0.01493765629973252</v>
       </c>
       <c r="T4">
-        <v>0.01488147580693421</v>
+        <v>0.01493765629973252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.69454988116261</v>
+        <v>5.727753666666666</v>
       </c>
       <c r="N5">
-        <v>5.69454988116261</v>
+        <v>17.183261</v>
       </c>
       <c r="O5">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="P5">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="Q5">
-        <v>270.596619099776</v>
+        <v>279.2087059034043</v>
       </c>
       <c r="R5">
-        <v>270.596619099776</v>
+        <v>2512.878353130639</v>
       </c>
       <c r="S5">
-        <v>0.01579121058050561</v>
+        <v>0.01559454864592948</v>
       </c>
       <c r="T5">
-        <v>0.01579121058050561</v>
+        <v>0.01559454864592948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.509947526381635</v>
+        <v>0.5741953333333333</v>
       </c>
       <c r="N6">
-        <v>0.509947526381635</v>
+        <v>1.722586</v>
       </c>
       <c r="O6">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="P6">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="Q6">
-        <v>24.23195501608144</v>
+        <v>27.99008918431266</v>
       </c>
       <c r="R6">
-        <v>24.23195501608144</v>
+        <v>251.910802658814</v>
       </c>
       <c r="S6">
-        <v>0.001414104528390976</v>
+        <v>0.001563320907119846</v>
       </c>
       <c r="T6">
-        <v>0.001414104528390976</v>
+        <v>0.001563320907119846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.6284378426208</v>
+        <v>28.73444633333333</v>
       </c>
       <c r="N7">
-        <v>27.6284378426208</v>
+        <v>86.203339</v>
       </c>
       <c r="O7">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="P7">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="Q7">
-        <v>494.4660210508813</v>
+        <v>536.0601377081036</v>
       </c>
       <c r="R7">
-        <v>494.4660210508813</v>
+        <v>4824.541239372932</v>
       </c>
       <c r="S7">
-        <v>0.0288555603144476</v>
+        <v>0.02994038408503204</v>
       </c>
       <c r="T7">
-        <v>0.0288555603144476</v>
+        <v>0.02994038408503204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3239233924809</v>
+        <v>16.38501466666667</v>
       </c>
       <c r="N8">
-        <v>16.3239233924809</v>
+        <v>49.155044</v>
       </c>
       <c r="O8">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="P8">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="Q8">
-        <v>292.1491795445561</v>
+        <v>305.6733064097191</v>
       </c>
       <c r="R8">
-        <v>292.1491795445561</v>
+        <v>2751.059757687472</v>
       </c>
       <c r="S8">
-        <v>0.01704895364346349</v>
+        <v>0.01707266695407993</v>
       </c>
       <c r="T8">
-        <v>0.01704895364346349</v>
+        <v>0.01707266695407993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.36648573305189</v>
+        <v>5.486482333333334</v>
       </c>
       <c r="N9">
-        <v>5.36648573305189</v>
+        <v>16.459447</v>
       </c>
       <c r="O9">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="P9">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="Q9">
-        <v>96.04396971568978</v>
+        <v>102.3539636372929</v>
       </c>
       <c r="R9">
-        <v>96.04396971568978</v>
+        <v>921.1856727356361</v>
       </c>
       <c r="S9">
-        <v>0.005604839246749542</v>
+        <v>0.00571674103026599</v>
       </c>
       <c r="T9">
-        <v>0.005604839246749542</v>
+        <v>0.005716741030265989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.69454988116261</v>
+        <v>5.727753666666666</v>
       </c>
       <c r="N10">
-        <v>5.69454988116261</v>
+        <v>17.183261</v>
       </c>
       <c r="O10">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="P10">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="Q10">
-        <v>101.9153322186943</v>
+        <v>106.8550402430964</v>
       </c>
       <c r="R10">
-        <v>101.9153322186943</v>
+        <v>961.6953621878679</v>
       </c>
       <c r="S10">
-        <v>0.005947474428178922</v>
+        <v>0.005968138127147856</v>
       </c>
       <c r="T10">
-        <v>0.005947474428178922</v>
+        <v>0.005968138127147855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.509947526381635</v>
+        <v>0.5741953333333333</v>
       </c>
       <c r="N11">
-        <v>0.509947526381635</v>
+        <v>1.722586</v>
       </c>
       <c r="O11">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="P11">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="Q11">
-        <v>9.126528461398799</v>
+        <v>10.71199444344089</v>
       </c>
       <c r="R11">
-        <v>9.126528461398799</v>
+        <v>96.40794999096799</v>
       </c>
       <c r="S11">
-        <v>0.0005325969455286725</v>
+        <v>0.0005982933730617906</v>
       </c>
       <c r="T11">
-        <v>0.0005325969455286725</v>
+        <v>0.0005982933730617905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.6284378426208</v>
+        <v>28.73444633333333</v>
       </c>
       <c r="N12">
-        <v>27.6284378426208</v>
+        <v>86.203339</v>
       </c>
       <c r="O12">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="P12">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="Q12">
-        <v>2690.493813641961</v>
+        <v>2806.245529198893</v>
       </c>
       <c r="R12">
-        <v>2690.493813641961</v>
+        <v>25256.20976279004</v>
       </c>
       <c r="S12">
-        <v>0.1570091840693031</v>
+        <v>0.1567362746656414</v>
       </c>
       <c r="T12">
-        <v>0.1570091840693031</v>
+        <v>0.1567362746656414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3239233924809</v>
+        <v>16.38501466666667</v>
       </c>
       <c r="N13">
-        <v>16.3239233924809</v>
+        <v>49.155044</v>
       </c>
       <c r="O13">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="P13">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="Q13">
-        <v>1589.645247118649</v>
+        <v>1600.183056280162</v>
       </c>
       <c r="R13">
-        <v>1589.645247118649</v>
+        <v>14401.64750652146</v>
       </c>
       <c r="S13">
-        <v>0.09276694930284606</v>
+        <v>0.08937447861022745</v>
       </c>
       <c r="T13">
-        <v>0.09276694930284606</v>
+        <v>0.08937447861022747</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.36648573305189</v>
+        <v>5.486482333333334</v>
       </c>
       <c r="N14">
-        <v>5.36648573305189</v>
+        <v>16.459447</v>
       </c>
       <c r="O14">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="P14">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="Q14">
-        <v>522.5954774576693</v>
+        <v>535.8174067577144</v>
       </c>
       <c r="R14">
-        <v>522.5954774576693</v>
+        <v>4822.356660819429</v>
       </c>
       <c r="S14">
-        <v>0.03049711138449609</v>
+        <v>0.02992682691602662</v>
       </c>
       <c r="T14">
-        <v>0.03049711138449609</v>
+        <v>0.02992682691602662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.69454988116261</v>
+        <v>5.727753666666666</v>
       </c>
       <c r="N15">
-        <v>5.69454988116261</v>
+        <v>17.183261</v>
       </c>
       <c r="O15">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="P15">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="Q15">
-        <v>554.542798040811</v>
+        <v>559.3802968387071</v>
       </c>
       <c r="R15">
-        <v>554.542798040811</v>
+        <v>5034.422671548364</v>
       </c>
       <c r="S15">
-        <v>0.03236146160620117</v>
+        <v>0.03124287698121998</v>
       </c>
       <c r="T15">
-        <v>0.03236146160620117</v>
+        <v>0.03124287698121998</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.509947526381635</v>
+        <v>0.5741953333333333</v>
       </c>
       <c r="N16">
-        <v>0.509947526381635</v>
+        <v>1.722586</v>
       </c>
       <c r="O16">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="P16">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="Q16">
-        <v>49.65936448622831</v>
+        <v>56.07670558051822</v>
       </c>
       <c r="R16">
-        <v>49.65936448622831</v>
+        <v>504.690350224664</v>
       </c>
       <c r="S16">
-        <v>0.002897972208614201</v>
+        <v>0.003132033115691591</v>
       </c>
       <c r="T16">
-        <v>0.002897972208614201</v>
+        <v>0.003132033115691591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.6284378426208</v>
+        <v>28.73444633333333</v>
       </c>
       <c r="N17">
-        <v>27.6284378426208</v>
+        <v>86.203339</v>
       </c>
       <c r="O17">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="P17">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="Q17">
-        <v>3781.612559435694</v>
+        <v>3986.039943353913</v>
       </c>
       <c r="R17">
-        <v>3781.612559435694</v>
+        <v>35874.35949018522</v>
       </c>
       <c r="S17">
-        <v>0.2206836155551335</v>
+        <v>0.2226309297918374</v>
       </c>
       <c r="T17">
-        <v>0.2206836155551335</v>
+        <v>0.2226309297918374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.3239233924809</v>
+        <v>16.38501466666667</v>
       </c>
       <c r="N18">
-        <v>16.3239233924809</v>
+        <v>49.155044</v>
       </c>
       <c r="O18">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="P18">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="Q18">
-        <v>2234.319365861627</v>
+        <v>2272.927836372082</v>
       </c>
       <c r="R18">
-        <v>2234.319365861627</v>
+        <v>20456.35052734874</v>
       </c>
       <c r="S18">
-        <v>0.1303882056169117</v>
+        <v>0.1269490634194423</v>
       </c>
       <c r="T18">
-        <v>0.1303882056169117</v>
+        <v>0.1269490634194423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.36648573305189</v>
+        <v>5.486482333333334</v>
       </c>
       <c r="N19">
-        <v>5.36648573305189</v>
+        <v>16.459447</v>
       </c>
       <c r="O19">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="P19">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="Q19">
-        <v>734.5319327767116</v>
+        <v>761.0843611001744</v>
       </c>
       <c r="R19">
-        <v>734.5319327767116</v>
+        <v>6849.759249901569</v>
       </c>
       <c r="S19">
-        <v>0.04286508998956096</v>
+        <v>0.04250858530514079</v>
       </c>
       <c r="T19">
-        <v>0.04286508998956096</v>
+        <v>0.04250858530514079</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.69454988116261</v>
+        <v>5.727753666666666</v>
       </c>
       <c r="N20">
-        <v>5.69454988116261</v>
+        <v>17.183261</v>
       </c>
       <c r="O20">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="P20">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="Q20">
-        <v>779.4353583653365</v>
+        <v>794.5534998716871</v>
       </c>
       <c r="R20">
-        <v>779.4353583653365</v>
+        <v>7150.981498845184</v>
       </c>
       <c r="S20">
-        <v>0.04548551980725422</v>
+        <v>0.04437792570060213</v>
       </c>
       <c r="T20">
-        <v>0.04548551980725422</v>
+        <v>0.04437792570060213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.509947526381635</v>
+        <v>0.5741953333333333</v>
       </c>
       <c r="N21">
-        <v>0.509947526381635</v>
+        <v>1.722586</v>
       </c>
       <c r="O21">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="P21">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="Q21">
-        <v>69.79851634764117</v>
+        <v>79.65232764199823</v>
       </c>
       <c r="R21">
-        <v>69.79851634764117</v>
+        <v>716.870948777984</v>
       </c>
       <c r="S21">
-        <v>0.004073232967652322</v>
+        <v>0.004448794295849747</v>
       </c>
       <c r="T21">
-        <v>0.004073232967652322</v>
+        <v>0.004448794295849747</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H22">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.6284378426208</v>
+        <v>28.73444633333333</v>
       </c>
       <c r="N22">
-        <v>27.6284378426208</v>
+        <v>86.203339</v>
       </c>
       <c r="O22">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="P22">
-        <v>0.4976003904893302</v>
+        <v>0.504929020477927</v>
       </c>
       <c r="Q22">
-        <v>247.3959152215713</v>
+        <v>311.3225638121514</v>
       </c>
       <c r="R22">
-        <v>247.3959152215713</v>
+        <v>2801.903074309363</v>
       </c>
       <c r="S22">
-        <v>0.01443728678879115</v>
+        <v>0.01738819300148794</v>
       </c>
       <c r="T22">
-        <v>0.01443728678879115</v>
+        <v>0.01738819300148794</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H23">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.3239233924809</v>
+        <v>16.38501466666667</v>
       </c>
       <c r="N23">
-        <v>16.3239233924809</v>
+        <v>49.155044</v>
       </c>
       <c r="O23">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="P23">
-        <v>0.2940010832565367</v>
+        <v>0.2879216571700245</v>
       </c>
       <c r="Q23">
-        <v>146.1708400125219</v>
+        <v>177.5229880872609</v>
       </c>
       <c r="R23">
-        <v>146.1708400125219</v>
+        <v>1597.706892785348</v>
       </c>
       <c r="S23">
-        <v>0.008530093698310509</v>
+        <v>0.009915130921652953</v>
       </c>
       <c r="T23">
-        <v>0.008530093698310509</v>
+        <v>0.009915130921652955</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H24">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.36648573305189</v>
+        <v>5.486482333333334</v>
       </c>
       <c r="N24">
-        <v>5.36648573305189</v>
+        <v>16.459447</v>
       </c>
       <c r="O24">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="P24">
-        <v>0.09665278259788619</v>
+        <v>0.09640986703912194</v>
       </c>
       <c r="Q24">
-        <v>48.05362710025513</v>
+        <v>59.44314104782211</v>
       </c>
       <c r="R24">
-        <v>48.05362710025513</v>
+        <v>534.988269430399</v>
       </c>
       <c r="S24">
-        <v>0.002804266170145392</v>
+        <v>0.003320057487956026</v>
       </c>
       <c r="T24">
-        <v>0.002804266170145392</v>
+        <v>0.003320057487956026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H25">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.69454988116261</v>
+        <v>5.727753666666666</v>
       </c>
       <c r="N25">
-        <v>5.69454988116261</v>
+        <v>17.183261</v>
       </c>
       <c r="O25">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="P25">
-        <v>0.1025613630661461</v>
+        <v>0.1006495484513258</v>
       </c>
       <c r="Q25">
-        <v>50.99124270615932</v>
+        <v>62.05718863364854</v>
       </c>
       <c r="R25">
-        <v>50.99124270615932</v>
+        <v>558.5146977028369</v>
       </c>
       <c r="S25">
-        <v>0.002975696644006219</v>
+        <v>0.003466058996426353</v>
       </c>
       <c r="T25">
-        <v>0.002975696644006219</v>
+        <v>0.003466058996426353</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H26">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.509947526381635</v>
+        <v>0.5741953333333333</v>
       </c>
       <c r="N26">
-        <v>0.509947526381635</v>
+        <v>1.722586</v>
       </c>
       <c r="O26">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="P26">
-        <v>0.009184380590100681</v>
+        <v>0.01008990686160069</v>
       </c>
       <c r="Q26">
-        <v>4.566271018390437</v>
+        <v>6.22110345292911</v>
       </c>
       <c r="R26">
-        <v>4.566271018390437</v>
+        <v>55.989931076362</v>
       </c>
       <c r="S26">
-        <v>0.0002664739399145099</v>
+        <v>0.0003474651698777133</v>
       </c>
       <c r="T26">
-        <v>0.0002664739399145099</v>
+        <v>0.0003474651698777133</v>
       </c>
     </row>
   </sheetData>
